--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1378523333333333</v>
+        <v>0.11549</v>
       </c>
       <c r="N2">
-        <v>0.413557</v>
+        <v>0.34647</v>
       </c>
       <c r="O2">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="P2">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="Q2">
-        <v>0.02204263405077778</v>
+        <v>0.01846688949666667</v>
       </c>
       <c r="R2">
-        <v>0.198383706457</v>
+        <v>0.16620200547</v>
       </c>
       <c r="S2">
-        <v>0.0004551670350489126</v>
+        <v>0.0003837700116599605</v>
       </c>
       <c r="T2">
-        <v>0.0004551670350489127</v>
+        <v>0.0003837700116599606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>23.078362</v>
       </c>
       <c r="O3">
-        <v>0.9593118967607375</v>
+        <v>0.9654500393716549</v>
       </c>
       <c r="P3">
-        <v>0.9593118967607375</v>
+        <v>0.965450039371655</v>
       </c>
       <c r="Q3">
         <v>1.230079258862445</v>
@@ -632,10 +632,10 @@
         <v>11.070713329762</v>
       </c>
       <c r="S3">
-        <v>0.02540039125277893</v>
+        <v>0.02556291527068083</v>
       </c>
       <c r="T3">
-        <v>0.02540039125277893</v>
+        <v>0.02556291527068084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +670,34 @@
         <v>0.02647771943467731</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1884283333333333</v>
+        <v>0.159807</v>
       </c>
       <c r="N4">
-        <v>0.565285</v>
+        <v>0.479421</v>
       </c>
       <c r="O4">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="P4">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="Q4">
-        <v>0.03012975330944444</v>
+        <v>0.025553192569</v>
       </c>
       <c r="R4">
-        <v>0.2711677797850001</v>
+        <v>0.229978733121</v>
       </c>
       <c r="S4">
-        <v>0.0006221611468494659</v>
+        <v>0.000531034152336508</v>
       </c>
       <c r="T4">
-        <v>0.0006221611468494661</v>
+        <v>0.0005310341523365081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1378523333333333</v>
+        <v>0.11549</v>
       </c>
       <c r="N5">
-        <v>0.413557</v>
+        <v>0.34647</v>
       </c>
       <c r="O5">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="P5">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="Q5">
-        <v>0.8104548212213334</v>
+        <v>0.67898326448</v>
       </c>
       <c r="R5">
-        <v>7.294093390991999</v>
+        <v>6.11084938032</v>
       </c>
       <c r="S5">
-        <v>0.01673540091291378</v>
+        <v>0.0141103034906578</v>
       </c>
       <c r="T5">
-        <v>0.01673540091291378</v>
+        <v>0.01411030349065781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>23.078362</v>
       </c>
       <c r="O6">
-        <v>0.9593118967607375</v>
+        <v>0.9654500393716549</v>
       </c>
       <c r="P6">
-        <v>0.9593118967607375</v>
+        <v>0.965450039371655</v>
       </c>
       <c r="Q6">
         <v>45.22706603634134</v>
@@ -818,10 +818,10 @@
         <v>407.043594327072</v>
       </c>
       <c r="S6">
-        <v>0.9339115055079585</v>
+        <v>0.939887124100974</v>
       </c>
       <c r="T6">
-        <v>0.9339115055079587</v>
+        <v>0.9398871241009742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,34 +856,34 @@
         <v>0.9735222805653228</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1884283333333333</v>
+        <v>0.159807</v>
       </c>
       <c r="N7">
-        <v>0.565285</v>
+        <v>0.479421</v>
       </c>
       <c r="O7">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="P7">
-        <v>0.02349753529129985</v>
+        <v>0.02005588712602732</v>
       </c>
       <c r="Q7">
-        <v>1.107798812773333</v>
+        <v>0.939529643664</v>
       </c>
       <c r="R7">
-        <v>9.970189314960001</v>
+        <v>8.455766792976</v>
       </c>
       <c r="S7">
-        <v>0.02287537414445039</v>
+        <v>0.01952485297369081</v>
       </c>
       <c r="T7">
-        <v>0.02287537414445039</v>
+        <v>0.01952485297369081</v>
       </c>
     </row>
   </sheetData>
